--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
   <si>
     <t>com.berner_mattner.testona.requirements.doors</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>activateVariant(string)</t>
+  </si>
+  <si>
+    <t>updateTestTree()</t>
+  </si>
+  <si>
+    <t>updateVisualization()</t>
   </si>
 </sst>
 </file>
@@ -892,10 +898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M114"/>
+  <dimension ref="A2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,19 +1580,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="G113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="G114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
         <v>90</v>
       </c>
     </row>

--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="doors" sheetId="1" r:id="rId1"/>
     <sheet name="variants" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Methodenablauf" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
   <si>
     <t>com.berner_mattner.testona.requirements.doors</t>
   </si>
@@ -312,9 +312,6 @@
     <t>command to rename a variant name by the user interface</t>
   </si>
   <si>
-    <t>filters treeitems/elements according to variants ???</t>
-  </si>
-  <si>
     <t>sets colours and gets the tree labels</t>
   </si>
   <si>
@@ -364,6 +361,51 @@
   </si>
   <si>
     <t>updateVisualization()</t>
+  </si>
+  <si>
+    <t>Interface für VariantListener</t>
+  </si>
+  <si>
+    <t>activates/deactivates tree items, checks status if they are filtered out</t>
+  </si>
+  <si>
+    <t>Anforderungstext nach #param[xxxxxx] suchen</t>
+  </si>
+  <si>
+    <t>wenn keins gefunden, return</t>
+  </si>
+  <si>
+    <t>wenn ja, Parameterwerte in DOORS abfragen</t>
+  </si>
+  <si>
+    <t>getDoorsParameter() --&gt; return Liste mit Parameterwerte und zugehörige Variante</t>
+  </si>
+  <si>
+    <t>Methodenablauf</t>
+  </si>
+  <si>
+    <t>für Anzeigen bei Umschaltung:</t>
+  </si>
+  <si>
+    <t>Auslöser</t>
+  </si>
+  <si>
+    <t>für D&amp;D lesen und parsen der parameter</t>
+  </si>
+  <si>
+    <t>User verlinkt Anforderung mit Baumelement durch D&amp;D</t>
+  </si>
+  <si>
+    <t>Bei Variantenansicht wird ein Pfeil(Button) betätigt oder eine Variante aus der ComboBox wird ausgesucht</t>
+  </si>
+  <si>
+    <t>Suche ob Parameterwert zur Verfügung steht</t>
+  </si>
+  <si>
+    <t>wenn nein, weiter zum nächsten Element</t>
+  </si>
+  <si>
+    <t>wenn ja, Baumelementlabel mit Parameterwert ersetzen</t>
   </si>
 </sst>
 </file>
@@ -900,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1066,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1046,25 +1088,25 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1078,10 +1120,10 @@
         <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1100,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,7 +1244,7 @@
         <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,7 +1302,7 @@
         <v>61</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H58" s="1"/>
     </row>
@@ -1384,7 +1426,7 @@
         <v>74</v>
       </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,7 +1477,7 @@
         <v>45</v>
       </c>
       <c r="G90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -1475,7 +1517,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -1536,6 +1578,9 @@
       <c r="C108" t="s">
         <v>86</v>
       </c>
+      <c r="G108" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
@@ -1553,10 +1598,10 @@
         <v>87</v>
       </c>
       <c r="G110" t="s">
+        <v>103</v>
+      </c>
+      <c r="M110" t="s">
         <v>104</v>
-      </c>
-      <c r="M110" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -1577,7 +1622,7 @@
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="G112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
@@ -1586,7 +1631,7 @@
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="G113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
@@ -1595,7 +1640,7 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="G114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
@@ -1621,12 +1666,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="131">
   <si>
     <t>com.berner_mattner.testona.requirements.doors</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>wenn ja, Baumelementlabel mit Parameterwert ersetzen</t>
+  </si>
+  <si>
+    <t>listeners und handlers für pfeile und combo box</t>
   </si>
 </sst>
 </file>
@@ -942,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1333,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
@@ -1346,15 +1349,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
@@ -1362,7 +1376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1370,7 +1384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1378,23 +1392,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
@@ -1402,7 +1420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>1</v>
       </c>
@@ -1410,7 +1428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>20</v>
       </c>
@@ -1669,7 +1687,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="173">
   <si>
     <t>com.berner_mattner.testona.requirements.doors</t>
   </si>
@@ -369,18 +369,6 @@
     <t>activates/deactivates tree items, checks status if they are filtered out</t>
   </si>
   <si>
-    <t>Anforderungstext nach #param[xxxxxx] suchen</t>
-  </si>
-  <si>
-    <t>wenn keins gefunden, return</t>
-  </si>
-  <si>
-    <t>wenn ja, Parameterwerte in DOORS abfragen</t>
-  </si>
-  <si>
-    <t>getDoorsParameter() --&gt; return Liste mit Parameterwerte und zugehörige Variante</t>
-  </si>
-  <si>
     <t>Methodenablauf</t>
   </si>
   <si>
@@ -393,12 +381,6 @@
     <t>für D&amp;D lesen und parsen der parameter</t>
   </si>
   <si>
-    <t>User verlinkt Anforderung mit Baumelement durch D&amp;D</t>
-  </si>
-  <si>
-    <t>Bei Variantenansicht wird ein Pfeil(Button) betätigt oder eine Variante aus der ComboBox wird ausgesucht</t>
-  </si>
-  <si>
     <t>Suche ob Parameterwert zur Verfügung steht</t>
   </si>
   <si>
@@ -409,13 +391,157 @@
   </si>
   <si>
     <t>listeners und handlers für pfeile und combo box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User verlinkt Anforderung mit Baumelement durch D&amp;D </t>
+  </si>
+  <si>
+    <t>ResourceSetListener benachrichitg über die Änderung</t>
+  </si>
+  <si>
+    <t>Parser überprüft ob die Anforderung ein Parameter beinhaltet</t>
+  </si>
+  <si>
+    <t>Verbindung zu DOORS um Parameter Tabelle abzufragen und local speichern</t>
+  </si>
+  <si>
+    <t>Parameter - Variante - Baumelement verknüpfen</t>
+  </si>
+  <si>
+    <t>Listener deklarieren und initializieren</t>
+  </si>
+  <si>
+    <t>warten auf Änderung</t>
+  </si>
+  <si>
+    <t>wenn Anforderung verlinkt wird Parser aufrufen</t>
+  </si>
+  <si>
+    <t>Anforderungstext laden</t>
+  </si>
+  <si>
+    <t>Anforderungstext auf #param[] überprüfen</t>
+  </si>
+  <si>
+    <t>Parameter in Variable speichern</t>
+  </si>
+  <si>
+    <t>Rufe die Parameter Tabelle ab</t>
+  </si>
+  <si>
+    <t>Überprüfe ob Parameter Tabelle schon geladen wurde, sonst Aufruf von DOORS Methode</t>
+  </si>
+  <si>
+    <t>Überprüfe ob Verbindung zu DOORS existiert, sonst Verbindung aufbauen?</t>
+  </si>
+  <si>
+    <t>Entscheidun treffen:</t>
+  </si>
+  <si>
+    <t>Wenn von DOORS Anforderungen importiert werden, auch Parameter Tabelle</t>
+  </si>
+  <si>
+    <t>Erst Parameter Tabelle importieren wenn Benutzer Anforderungen mit Parameter an Baumelement verknüpft?</t>
+  </si>
+  <si>
+    <t>Parameter speichern</t>
+  </si>
+  <si>
+    <t>Parameter im Baumelement eintragen (als Eigenschaft/Tag)</t>
+  </si>
+  <si>
+    <t>Baumelemente werden an Varianten angehängt --&gt; Varianten beinhalten Baumelemente!!!!</t>
+  </si>
+  <si>
+    <t>Tag des Baumelements mit Tag des Parametern verbinden</t>
+  </si>
+  <si>
+    <t>genauere Überlegung!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VariantsManager public void activateVariant(final String name) </t>
+  </si>
+  <si>
+    <t>filter.setName(name);</t>
+  </si>
+  <si>
+    <t>updateTestTree();</t>
+  </si>
+  <si>
+    <t>updateVisualization();</t>
+  </si>
+  <si>
+    <t>resourceListener.fireChanges(IVariantListener.SELECTION);</t>
+  </si>
+  <si>
+    <t>if Item has Parameter then label += parameter</t>
+  </si>
+  <si>
+    <t>Bei Variantenansicht wird ein Pfeil(Button) betätigt oder eine Variante aus der ComboBox wird ausgesucht. Filter wird aktulisiert und aktiviert</t>
+  </si>
+  <si>
+    <t>Methode setzt den filter in erneuert die ansicht</t>
+  </si>
+  <si>
+    <t>call VariantsManager public List&lt;TreeItem&gt; calculateVariantItems(final String variant, final boolean excluded)</t>
+  </si>
+  <si>
+    <t>TreeItem boolean addTag(Tag newTag);</t>
+  </si>
+  <si>
+    <t>alle TreeItems durchgehen und prüfen ob ein Parameter zugewiesen ist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei alle TreeItems die nicht zur Variante gehören, muss der "alte" Wert geschrieben werden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TreeItem neuen Tag zuweisen? Wie sieht es aus? </t>
+  </si>
+  <si>
+    <t>Variante hat dazugehörige TreeItems</t>
+  </si>
+  <si>
+    <t>Aus Requirement wird Parameter extrahiert</t>
+  </si>
+  <si>
+    <t>TreeItem hat VariantTag und Requirement</t>
+  </si>
+  <si>
+    <t>TreeItem hat Tag mit Parameter mit VariantTag zuordnung</t>
+  </si>
+  <si>
+    <t>aus GST</t>
+  </si>
+  <si>
+    <t>newTag --&gt; String</t>
+  </si>
+  <si>
+    <t>GST --&gt; getName()</t>
+  </si>
+  <si>
+    <t>GST --&gt; setName(string)</t>
+  </si>
+  <si>
+    <t>name des TreeItem</t>
+  </si>
+  <si>
+    <t>Vereinbarung treffen für die Darstellung</t>
+  </si>
+  <si>
+    <t>Name; ParamWert</t>
+  </si>
+  <si>
+    <t>ParamWert</t>
+  </si>
+  <si>
+    <t>Name = ParamWert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,8 +557,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +576,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,11 +604,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1362,7 +1513,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -1684,79 +1835,323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="H27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>152</v>
+      </c>
+      <c r="L45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="L46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>129</v>
+      <c r="L48" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="40" windowWidth="23880" windowHeight="13980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="doors" sheetId="1" r:id="rId1"/>
     <sheet name="variants" sheetId="2" r:id="rId2"/>
     <sheet name="Methodenablauf" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -447,18 +452,9 @@
     <t>Parameter speichern</t>
   </si>
   <si>
-    <t>Parameter im Baumelement eintragen (als Eigenschaft/Tag)</t>
-  </si>
-  <si>
     <t>Baumelemente werden an Varianten angehängt --&gt; Varianten beinhalten Baumelemente!!!!</t>
   </si>
   <si>
-    <t>Tag des Baumelements mit Tag des Parametern verbinden</t>
-  </si>
-  <si>
-    <t>genauere Überlegung!!</t>
-  </si>
-  <si>
     <t xml:space="preserve">VariantsManager public void activateVariant(final String name) </t>
   </si>
   <si>
@@ -535,6 +531,15 @@
   </si>
   <si>
     <t>Name = ParamWert</t>
+  </si>
+  <si>
+    <t>genauere Überlegung!! Wie soll das gespeichert werden</t>
+  </si>
+  <si>
+    <t>Baumelement bekommt einTag für Parametern</t>
+  </si>
+  <si>
+    <t>Parameterwert im Baumelement Tag eintragen</t>
   </si>
 </sst>
 </file>
@@ -917,16 +922,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -934,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -942,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -950,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -958,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -966,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -974,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -982,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -990,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -998,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +1011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1022,7 +1027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1054,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1070,7 +1075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1093,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1096,13 +1106,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1110,10 +1120,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1132,7 +1142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +1161,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1173,7 +1183,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1181,7 +1191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1192,7 +1202,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1204,7 +1214,7 @@
       <c r="E16" s="3"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1223,7 +1233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1244,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1245,28 +1255,28 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +1309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1307,7 +1317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1315,7 +1325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,7 +1341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1357,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1400,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +1419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1417,7 +1427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1425,7 +1435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1445,10 +1455,10 @@
       <c r="E56" s="3"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1470,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,7 +1502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="2" t="s">
         <v>20</v>
       </c>
@@ -1519,7 +1529,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1545,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1553,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1563,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1573,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="B77" s="1" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1589,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
         <v>20</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="B81" s="1" t="s">
         <v>1</v>
       </c>
@@ -1598,7 +1608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="B82" s="1" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="B87" s="1" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="B88" s="1" t="s">
         <v>1</v>
       </c>
@@ -1638,7 +1648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,7 +1659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1657,7 +1667,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +1675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
@@ -1673,12 +1683,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="G96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="B101" s="1" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" s="2" t="s">
         <v>20</v>
       </c>
@@ -1716,7 +1726,7 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="B105" s="1" t="s">
         <v>1</v>
       </c>
@@ -1724,7 +1734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
@@ -1732,7 +1742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1761,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -1803,7 +1813,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -1812,7 +1822,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7">
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7">
       <c r="B116" s="1" t="s">
         <v>1</v>
       </c>
@@ -1830,6 +1840,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1837,37 +1852,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>117</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="J3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>120</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1883,7 +1898,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="C8" t="s">
         <v>130</v>
       </c>
@@ -1891,7 +1906,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="C9" t="s">
         <v>131</v>
       </c>
@@ -1899,7 +1914,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="C10" t="s">
         <v>132</v>
       </c>
@@ -1907,7 +1922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1915,27 +1930,27 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="C13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="C14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="C15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="C16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1943,22 +1958,22 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="C19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="C21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1966,64 +1981,64 @@
         <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="C24" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="C25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
-        <v>159</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="C27" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="H27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
+      <c r="G27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="C28" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2032,126 +2047,131 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="8">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="C38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="C39" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>3</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="H45" t="s">
+        <v>149</v>
+      </c>
+      <c r="L45" t="s">
         <v>166</v>
       </c>
-      <c r="D43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>152</v>
-      </c>
-      <c r="L45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:19">
       <c r="B46" t="s">
         <v>121</v>
       </c>
       <c r="L46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="C47" t="s">
         <v>122</v>
       </c>
       <c r="L47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="C48" t="s">
         <v>123</v>
       </c>
       <c r="L48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="40" windowWidth="23880" windowHeight="13980" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23880" windowHeight="13980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="doors" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="175">
   <si>
     <t>com.berner_mattner.testona.requirements.doors</t>
   </si>
@@ -416,9 +416,6 @@
     <t>Listener deklarieren und initializieren</t>
   </si>
   <si>
-    <t>warten auf Änderung</t>
-  </si>
-  <si>
     <t>wenn Anforderung verlinkt wird Parser aufrufen</t>
   </si>
   <si>
@@ -540,13 +537,22 @@
   </si>
   <si>
     <t>Parameterwert im Baumelement Tag eintragen</t>
+  </si>
+  <si>
+    <t>Implementiert wo</t>
+  </si>
+  <si>
+    <t>warten auf Änderung, wenn Anforderung hinzugefügt --&gt; parser; wenn gelöscht Inhalte löschen</t>
+  </si>
+  <si>
+    <t>wird in VariantsManager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +572,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -609,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -619,6 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -926,12 +939,12 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -939,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -947,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -955,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -963,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -971,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -979,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -987,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -995,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1011,7 +1024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +1088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1110,9 +1123,9 @@
       <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1120,10 +1133,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1131,7 +1144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1155,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +1174,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1196,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1191,7 +1204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1215,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1227,7 @@
       <c r="E16" s="3"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1222,7 +1235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1246,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1244,7 +1257,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1255,28 +1268,28 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,7 +1311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1322,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1317,7 +1330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1346,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,7 +1354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1373,7 +1386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1394,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +1402,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1400,7 +1413,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1424,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -1419,7 +1432,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -1455,10 +1468,10 @@
       <c r="E56" s="3"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
@@ -1470,7 +1483,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1499,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>1</v>
       </c>
@@ -1510,7 +1523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1542,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1576,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1586,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>1</v>
       </c>
@@ -1581,7 +1594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +1602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>1</v>
       </c>
@@ -1608,7 +1621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>1</v>
       </c>
@@ -1616,7 +1629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
@@ -1632,7 +1645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>1</v>
       </c>
@@ -1640,7 +1653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1680,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
@@ -1683,12 +1696,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
@@ -1699,7 +1712,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>20</v>
       </c>
@@ -1707,7 +1720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>20</v>
       </c>
@@ -1726,7 +1739,7 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>1</v>
       </c>
@@ -1734,7 +1747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +1755,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1763,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +1782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
@@ -1783,7 +1796,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
@@ -1791,7 +1804,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -1813,7 +1826,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -1822,7 +1835,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +1843,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>1</v>
       </c>
@@ -1850,324 +1863,338 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S48"/>
+  <dimension ref="A2:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:14">
-      <c r="B2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>117</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="J3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" t="s">
         <v>159</v>
       </c>
-      <c r="N3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="C8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
         <v>130</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="C9" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>131</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="C10" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>132</v>
       </c>
-      <c r="K10" t="s">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="C19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="C20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="C21" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="C24" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>171</v>
       </c>
-      <c r="I24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="C27" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="C28" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="H28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="C29" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="I28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" t="s">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>119</v>
       </c>
-      <c r="B33" t="s">
-        <v>150</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N33" s="4"/>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="M34" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N34" s="4"/>
-      <c r="O34" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="P34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="8">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="M35" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="N35" s="4"/>
-      <c r="O35" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="M36" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
-      <c r="O36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="1">
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M37" s="4"/>
+      <c r="C37" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="P37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="C38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="C39" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="1">
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
         <v>3</v>
       </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="B43" t="s">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>163</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>148</v>
+      </c>
+      <c r="M45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
-      <c r="B44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="H45" t="s">
-        <v>149</v>
-      </c>
-      <c r="L45" t="s">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
-      <c r="B46" t="s">
-        <v>121</v>
-      </c>
-      <c r="L46" t="s">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
-      <c r="C47" t="s">
-        <v>122</v>
-      </c>
-      <c r="L47" t="s">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="M48" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="C48" t="s">
-        <v>123</v>
-      </c>
-      <c r="L48" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23880" windowHeight="13980" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23610" windowHeight="9810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="doors" sheetId="1" r:id="rId1"/>
     <sheet name="variants" sheetId="2" r:id="rId2"/>
     <sheet name="Methodenablauf" sheetId="5" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="196">
   <si>
     <t>com.berner_mattner.testona.requirements.doors</t>
   </si>
@@ -542,17 +543,92 @@
     <t>Implementiert wo</t>
   </si>
   <si>
-    <t>warten auf Änderung, wenn Anforderung hinzugefügt --&gt; parser; wenn gelöscht Inhalte löschen</t>
-  </si>
-  <si>
     <t>wird in VariantsManager</t>
+  </si>
+  <si>
+    <r>
+      <t>warten auf Änderung, wenn Anforderung hinzugefügt --&gt; getID() + getText und parse() ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wenn gelöscht Inhalte löschen</t>
+    </r>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>overwrite requirement</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>oldValue</t>
+  </si>
+  <si>
+    <t>newValue</t>
+  </si>
+  <si>
+    <t>notifier</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>ResourceSetChangeEvent</t>
+  </si>
+  <si>
+    <t>BasicEList$UnmodifiableEList&lt;E&gt;</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- requirementTagImpl</t>
+  </si>
+  <si>
+    <t>ENotificationImpl</t>
+  </si>
+  <si>
+    <t>0@1831</t>
+  </si>
+  <si>
+    <t>delete req</t>
+  </si>
+  <si>
+    <t>0@xxxxx</t>
+  </si>
+  <si>
+    <t>add requirement</t>
+  </si>
+  <si>
+    <t>RequirementTagImpl</t>
+  </si>
+  <si>
+    <t>TestonaClassImpl</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>TestonaResourceImpl</t>
+  </si>
+  <si>
+    <t>ResourceImpl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +654,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -618,10 +709,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -632,8 +724,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1863,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T48"/>
+  <dimension ref="A2:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showRuler="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,184 +2014,182 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
         <v>130</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
       <c r="D10" t="s">
         <v>131</v>
       </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>170</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="I28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="I30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>119</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>149</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
@@ -2107,7 +2199,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -2115,16 +2207,17 @@
       <c r="T36" s="4"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="1">
-        <v>2</v>
+      <c r="B37" s="8">
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -2132,63 +2225,91 @@
       <c r="T37" s="4"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D39" s="6" t="s">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
         <v>3</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>162</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>148</v>
-      </c>
-      <c r="M45" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>148</v>
+      </c>
+      <c r="M47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>121</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M48" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>122</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>123</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M50" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2201,4 +2322,201 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="5" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1"/>
+    <hyperlink ref="D15" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23610" windowHeight="9810" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23610" windowHeight="9810" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="doors" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="194">
   <si>
     <t>com.berner_mattner.testona.requirements.doors</t>
   </si>
@@ -436,15 +436,6 @@
   </si>
   <si>
     <t>Überprüfe ob Verbindung zu DOORS existiert, sonst Verbindung aufbauen?</t>
-  </si>
-  <si>
-    <t>Entscheidun treffen:</t>
-  </si>
-  <si>
-    <t>Wenn von DOORS Anforderungen importiert werden, auch Parameter Tabelle</t>
-  </si>
-  <si>
-    <t>Erst Parameter Tabelle importieren wenn Benutzer Anforderungen mit Parameter an Baumelement verknüpft?</t>
   </si>
   <si>
     <t>Parameter speichern</t>
@@ -622,6 +613,9 @@
   </si>
   <si>
     <t>ResourceImpl</t>
+  </si>
+  <si>
+    <t>ParameterManager</t>
   </si>
 </sst>
 </file>
@@ -723,8 +717,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1959,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T50"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,15 +1968,15 @@
         <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1990,12 +1984,12 @@
         <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>119</v>
@@ -2014,7 +2008,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
         <v>130</v>
@@ -2025,39 +2019,24 @@
         <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L13" t="s">
-        <v>140</v>
-      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -2068,7 +2047,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
         <v>132</v>
@@ -2076,7 +2055,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
         <v>133</v>
@@ -2084,16 +2063,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
       <c r="D18" t="s">
         <v>136</v>
       </c>
@@ -2118,7 +2100,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2129,42 +2111,42 @@
         <v>129</v>
       </c>
       <c r="J25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D29" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2183,10 +2165,10 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -2199,7 +2181,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -2211,13 +2193,13 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -2228,7 +2210,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -2240,12 +2222,12 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -2254,12 +2236,12 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D41" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
@@ -2270,23 +2252,23 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
@@ -2294,7 +2276,7 @@
         <v>121</v>
       </c>
       <c r="M48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="4:13" x14ac:dyDescent="0.25">
@@ -2302,7 +2284,7 @@
         <v>122</v>
       </c>
       <c r="M49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.25">
@@ -2310,7 +2292,7 @@
         <v>123</v>
       </c>
       <c r="M50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2328,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2354,161 +2336,161 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>187</v>
+      <c r="D15" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23610" windowHeight="9810" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23610" windowHeight="9810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="doors" sheetId="1" r:id="rId1"/>
     <sheet name="variants" sheetId="2" r:id="rId2"/>
     <sheet name="Methodenablauf" sheetId="5" r:id="rId3"/>
-    <sheet name="Tabelle1" sheetId="6" r:id="rId4"/>
+    <sheet name="notifier" sheetId="6" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="211">
   <si>
     <t>com.berner_mattner.testona.requirements.doors</t>
   </si>
@@ -616,6 +617,57 @@
   </si>
   <si>
     <t>ParameterManager</t>
+  </si>
+  <si>
+    <t>ParameterTag</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>name des Parameters, gelesen aus der Anforderung</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>EMap&lt;string, string&gt;</t>
+  </si>
+  <si>
+    <t>variant key, parameter value for the variant</t>
+  </si>
+  <si>
+    <t>paramTagList</t>
+  </si>
+  <si>
+    <t>List&lt;ParameterTag&gt;</t>
+  </si>
+  <si>
+    <t>variantList</t>
+  </si>
+  <si>
+    <t>Emap&lt;String, Variant&gt;</t>
+  </si>
+  <si>
+    <t>String = Variantkey, Variant</t>
+  </si>
+  <si>
+    <t>Liste von Tags</t>
+  </si>
+  <si>
+    <t>mehrere Tags können an einem TreeItem angehängt werden,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> es unterscheiden sich bei de Namen und für die Darstellung</t>
+  </si>
+  <si>
+    <t>sind die Werte bei verschiedenen Varianten gültig</t>
+  </si>
+  <si>
+    <t>zwei oder mehrere Tags können nicht die gleichen Varianten beinhalten</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2311,7 +2363,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,4 +2553,90 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Plug-ins.xlsx
+++ b/Documents/Plug-ins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23610" windowHeight="9810" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23610" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="doors" sheetId="1" r:id="rId1"/>
@@ -556,9 +556,6 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>overwrite requirement</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -668,6 +665,9 @@
   </si>
   <si>
     <t>zwei oder mehrere Tags können nicht die gleichen Varianten beinhalten</t>
+  </si>
+  <si>
+    <t>add new requirement to class with req</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M116"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
         <v>131</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
         <v>132</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
         <v>133</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
         <v>172</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
         <v>136</v>
@@ -2362,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,161 +2388,161 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
         <v>180</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2559,7 +2559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2571,69 +2571,69 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
         <v>199</v>
-      </c>
-      <c r="B8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" t="s">
         <v>204</v>
-      </c>
-      <c r="B14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
